--- a/resources/templates/usdm-report-template.xlsx
+++ b/resources/templates/usdm-report-template.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GerryCampion\Code\cdisc-rules-engine\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D42DE43-02C5-4FFA-A93F-3229B9620E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC037123-6FE4-4491-845A-72FE3751FD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Conformance Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Entity Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Issue Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Issue Details" sheetId="4" r:id="rId4"/>
-    <sheet name="Rules Report" sheetId="5" r:id="rId5"/>
+    <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
+    <sheet name="Conformance Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Entity Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Issue Summary" sheetId="3" r:id="rId4"/>
+    <sheet name="Issue Details" sheetId="4" r:id="rId5"/>
+    <sheet name="Rules Report" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Entity Details'!$A$1:$B$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Issue Details'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Issue Summary'!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Rules Report'!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Entity Details'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Issue Details'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Issue Summary'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Rules Report'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Conformance Details</t>
   </si>
@@ -102,9 +103,6 @@
     <t>Number of Instances</t>
   </si>
   <si>
-    <t>Variable(s)</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDISC RuleID </t>
   </si>
   <si>
@@ -113,12 +111,166 @@
   <si>
     <t>Instance ID</t>
   </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <r>
+      <t>This output is aligned to the validation of json formatted data. Entities (classes) and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attributes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are referenced and align with the corresponding data model.</t>
+    </r>
+  </si>
+  <si>
+    <t>Both output generated from direct json validation (using jsonata checks) as well as from validation based on conversion to tabular format are combined in this report.</t>
+  </si>
+  <si>
+    <t>This sheet gives a general overview of the input and the validation run that is executed using the Core engine.</t>
+  </si>
+  <si>
+    <t>Entity Details</t>
+  </si>
+  <si>
+    <t>This sheet  gives a list of all entities that are included in the input file and the corresponding number of instances within that entity.</t>
+  </si>
+  <si>
+    <t>Note that also datatypes are listed here. For these, it is indicated how many attributes are specified according to these datatypes.</t>
+  </si>
+  <si>
+    <t>Issue Summary</t>
+  </si>
+  <si>
+    <t>This sheet gives an overview of the number of issues found per entity and rule. It includes the following columns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Entity: The entity that the rule issues are applicable to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CORE-ID: The rule ID of the rule that has produced the issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Message: The rule output message that corresponds to the issues found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Issues: The number of issues found that correspond to the entity and corresponding core rule.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Explanation: A column added for convenience which can be used to explain the results further.</t>
+  </si>
+  <si>
+    <t>Issue Details</t>
+  </si>
+  <si>
+    <t>This sheets details the exact issues found with corresponding information. It includes the following coluimns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CORE-ID: the rule ID of the rule that has produced the issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CDISC Rule ID: the rule ID of the rule that has produced the issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Message: the rule output message that corresponds to the issue found.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Executability: And indication whether the issue is an error (fully executable) or a warning (partially executable - possible overreporting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Entity: the entity that the rule issue is applicable to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Instance ID: the id value of the instance within the entity that the issue relates to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Path: The path in the input json file that points to the corresponding instance that the issue relates to. In case of multiple instances the path refers to the instance based on the order /0 is the first instance within the preceding entity, /1 the second and so forth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Variables: The specification of variables that are included as output to further specify the issue.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   - Values: The values that correspond the the specified </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">variables, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the same order.</t>
+    </r>
+  </si>
+  <si>
+    <t>Rules Report</t>
+  </si>
+  <si>
+    <t>This sheet lists all the rules that have been included in the validation run using the Core engine. It includes the following columns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CORE-ID: The rule ID of the rule that has been executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Version: The version of the rule that has been executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CDISC Rule ID: The rule ID of the rule that has been executed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Message: The rule output message that corresponds to the rule that has been executed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   - Status: An indication whether the rule execution was successful. If the status is SKIPPED then this can be due to ...</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>???</t>
+    </r>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +296,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -209,6 +376,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,11 +769,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D80535-7799-480A-B0BC-17C0755D1189}">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="152.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -683,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B29"/>
@@ -826,29 +1176,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.77734375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="63.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1"/>
+    <col min="2" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="63.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -856,18 +1206,21 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -875,8 +1228,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -884,8 +1238,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -893,8 +1248,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -902,8 +1258,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -911,8 +1268,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -920,8 +1278,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -929,8 +1288,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -938,8 +1298,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -947,8 +1308,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -956,8 +1318,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -965,8 +1328,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -974,8 +1338,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -983,8 +1348,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -992,8 +1358,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1001,8 +1368,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1010,8 +1378,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1019,8 +1388,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1028,8 +1398,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1037,8 +1408,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1046,8 +1418,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1055,8 +1428,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1064,8 +1438,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1073,8 +1448,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1082,8 +1458,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1091,8 +1468,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1100,8 +1478,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1109,8 +1488,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1118,8 +1498,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1127,8 +1508,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1136,8 +1518,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1145,8 +1528,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1154,8 +1538,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1163,8 +1548,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1172,8 +1558,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1181,8 +1568,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1190,8 +1578,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1199,8 +1588,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1208,8 +1598,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1217,8 +1608,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1226,8 +1618,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1235,8 +1628,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1244,8 +1638,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1253,8 +1648,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1262,8 +1658,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1271,8 +1668,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1280,8 +1678,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1289,8 +1688,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1298,8 +1698,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1307,8 +1708,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1316,8 +1718,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1325,8 +1728,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1334,8 +1738,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1343,8 +1748,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1352,8 +1758,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1361,25 +1768,26 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90"/>
+  <pageSetup orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I919"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,7 +1807,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>9</v>
@@ -1411,13 +1819,13 @@
         <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>13</v>
@@ -10773,7 +11181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E356"/>
@@ -12600,28 +13008,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de0c653c-2bd3-43b1-95fa-012c57f61cfe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="848a8810-16a6-4d79-96d3-e3dfb86099b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D9A8E34D4601248B4650C3759D604D8" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3ac1cb6c51cab9f664444f3f28fc18c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="de0c653c-2bd3-43b1-95fa-012c57f61cfe" xmlns:ns3="848a8810-16a6-4d79-96d3-e3dfb86099b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9abe1b123dbfe9b165e5a3e06c10c69d" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -12893,27 +13279,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C23D74-9542-4171-A552-025893E8AF6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F60A92-6BFE-4C8E-AEB2-AFC039296A60}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de0c653c-2bd3-43b1-95fa-012c57f61cfe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="848a8810-16a6-4d79-96d3-e3dfb86099b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5258D4C8-CB5E-408F-B4F2-1B1EFF3709DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12931,4 +13319,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F60A92-6BFE-4C8E-AEB2-AFC039296A60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C23D74-9542-4171-A552-025893E8AF6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/resources/templates/usdm-report-template.xlsx
+++ b/resources/templates/usdm-report-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDISC\cdisc-rules-engine\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA55C31E-83A4-464B-BECF-7E6244EA4B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427656AC-E268-42B0-8502-AF0003A1750D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4665" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
     <t>This sheet lists all the rules that have been included in the validation run using the CORE engine. It includes the following columns:</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Status: An indication of whether the rule execution was successful ("SUCCESS") or if the rule was skipped ("SKIPPED").</t>
+    <t xml:space="preserve">   - Status: An indication of whether the rule execution was successful ("SUCCESS") or if the rule was skipped ("SKIPPED"). Rules may be skipped if they are not applicable to the version of the standard, if the entity defined in the scope is not present in the JSON file, or if the attribute being checked is not present in the entity.</t>
   </si>
 </sst>
 </file>
@@ -885,8 +885,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    <row r="39" spans="1:1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -12954,12 +12954,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de0c653c-2bd3-43b1-95fa-012c57f61cfe">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="848a8810-16a6-4d79-96d3-e3dfb86099b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13235,22 +13239,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de0c653c-2bd3-43b1-95fa-012c57f61cfe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="848a8810-16a6-4d79-96d3-e3dfb86099b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F60A92-6BFE-4C8E-AEB2-AFC039296A60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C23D74-9542-4171-A552-025893E8AF6E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
+    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13276,13 +13280,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20C23D74-9542-4171-A552-025893E8AF6E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9F60A92-6BFE-4C8E-AEB2-AFC039296A60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="de0c653c-2bd3-43b1-95fa-012c57f61cfe"/>
-    <ds:schemaRef ds:uri="848a8810-16a6-4d79-96d3-e3dfb86099b7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>